--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2368.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2368.xlsx
@@ -354,7 +354,7 @@
         <v>1.678053443893724</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.978203531894602</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2368.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2368.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8481520111853988</v>
+        <v>1.011658668518066</v>
       </c>
       <c r="B1">
-        <v>1.678053443893724</v>
+        <v>2.130697011947632</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>5.698097229003906</v>
       </c>
       <c r="D1">
-        <v>1.978203531894602</v>
+        <v>0.9191138744354248</v>
       </c>
       <c r="E1">
-        <v>1.21604176332997</v>
+        <v>1.000214576721191</v>
       </c>
     </row>
   </sheetData>
